--- a/bom/ESP32C3TestBoard-BOM_V1.xlsx
+++ b/bom/ESP32C3TestBoard-BOM_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ESP32C3_RF_Test\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE2225-25D1-4AE1-A70C-5C95584258F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7EC5D-073C-4B46-AA32-FD4E195FA817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{AB1A99FF-3D74-4A85-AB54-B5919C720B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{AB1A99FF-3D74-4A85-AB54-B5919C720B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100nF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不知道，帮我算算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10nF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ESP32C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RT9013-33GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +115,96 @@
   </si>
   <si>
     <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C327275</t>
+  </si>
+  <si>
+    <t>C38523</t>
+  </si>
+  <si>
+    <t>C57112</t>
+  </si>
+  <si>
+    <t>C15849</t>
+  </si>
+  <si>
+    <t>C23162</t>
+  </si>
+  <si>
+    <t>C23345</t>
+  </si>
+  <si>
+    <t>C2907080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>C137714</t>
+  </si>
+  <si>
+    <t>C3017671</t>
+  </si>
+  <si>
+    <t>C71648</t>
+  </si>
+  <si>
+    <t>C72041</t>
+  </si>
+  <si>
+    <t>C47773</t>
+  </si>
+  <si>
+    <t>C9010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道，帮我算算，也许是12pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C918859</t>
+  </si>
+  <si>
+    <t>C720075</t>
+  </si>
+  <si>
+    <t>ESP32-C3FH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=654119559967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH4是高温Flash，FN4是普通Flash，其他的没Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>👉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要买（√）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_TypeC_HRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该就是最常见的16Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +227,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,18 +261,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,6 +295,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E369051C-B943-251D-F6F6-D84830513AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7806531" y="3167062"/>
+          <a:ext cx="1076099" cy="1040799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,19 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7867D75-F8E5-470B-8979-7C485A9944B2}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,163 +667,245 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{E2109F5C-A98C-41CC-9761-98021F0577B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/bom/ESP32C3TestBoard-BOM_V1.xlsx
+++ b/bom/ESP32C3TestBoard-BOM_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ESP32C3_RF_Test\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7EC5D-073C-4B46-AA32-FD4E195FA817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7051C-85C8-4FA7-8D21-1C7247EEB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{AB1A99FF-3D74-4A85-AB54-B5919C720B42}"/>
   </bookViews>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?id=654119559967</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FH4是高温Flash，FN4是普通Flash，其他的没Flash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>应该就是最常见的16Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=678398869655</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -829,16 +829,16 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,22 +887,22 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{E2109F5C-A98C-41CC-9761-98021F0577B4}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{627A5394-CEA1-4F68-9FC5-2E8077918CA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
